--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291995.311073391</v>
+        <v>2286273.699105506</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>45.22146064986453</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.5698753442037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>31.43755042993</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>129.0036366911897</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>165.5281072365806</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>127.0044127072327</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.70191565295227</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>274.4521713670106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>54.32902562741504</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>20.92358286280551</v>
+        <v>25.31590541686205</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1578,25 +1578,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>66.78565611847256</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>38.8175881791722</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>251.2375443843484</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873209</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>242.0962749244114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.41220336022569</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1340411809968</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>74.02842076295238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.962239308310091</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>123.7665540739439</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>70.82764119510642</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>30.84007598384107</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>111.8907136317135</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,10 +3480,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>109.7811651255454</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>109.9896305583493</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>61.59003644131386</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>209.1054071374031</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610036</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>928.5709377924563</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>517.5850330028488</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>99.6212249010357</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>99.6212249010357</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.111371249201</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>1782.111371249201</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y2" t="n">
-        <v>1596.687254739904</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,13 +4409,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9169416640003</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>368.9169416640003</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>368.9169416640003</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>368.9169416640003</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>222.02699416609</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>222.02699416609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2529.948982698444</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T5" t="n">
-        <v>2529.948982698444</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U5" t="n">
-        <v>2529.948982698444</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V5" t="n">
-        <v>2198.886095354873</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W5" t="n">
-        <v>2198.886095354873</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>2198.886095354873</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.746763379062</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1640.777806202926</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.777806202926</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1640.777806202926</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177351</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="X8" t="n">
-        <v>1640.777806202926</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1640.777806202926</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.0633493392339</v>
+        <v>546.4805193761941</v>
       </c>
       <c r="C10" t="n">
-        <v>257.0633493392339</v>
+        <v>377.5443364482873</v>
       </c>
       <c r="D10" t="n">
-        <v>257.0633493392339</v>
+        <v>227.4276970359515</v>
       </c>
       <c r="E10" t="n">
-        <v>257.0633493392339</v>
+        <v>79.51460345355841</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143013</v>
@@ -5029,40 +5029,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5096,58 +5096,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
         <v>192.886711630049</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1799.052750156704</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1577.28613472623</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.827124689058</v>
+        <v>1288.183267851874</v>
       </c>
       <c r="V13" t="n">
-        <v>1674.827124689058</v>
+        <v>1033.498779645987</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.827124689058</v>
+        <v>1033.498779645987</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>805.5092287479694</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
@@ -5284,13 +5284,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232731</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.5338801960603</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5976972681534</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839441</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>910.1823450263</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>910.1823450263</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>910.1823450263</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.1823450263</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="17">
@@ -5494,28 +5494,28 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
         <v>1106.569146563073</v>
@@ -5530,37 +5530,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,7 +5609,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902953</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7429179653792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862232</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987876</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781989</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1078.183961939149</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>1078.183961939149</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.3913827956189</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,10 +5737,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5749,55 +5749,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1014.851249206415</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1465.885462454824</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M20" t="n">
-        <v>1999.417367126749</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.6138567886371</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.6138567886371</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6092,10 +6092,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>805.005969585152</v>
+        <v>368.6730165490254</v>
       </c>
       <c r="C25" t="n">
-        <v>636.0697866572451</v>
+        <v>199.7368336211185</v>
       </c>
       <c r="D25" t="n">
-        <v>485.9531472449094</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>338.0400536625162</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>338.0400536625162</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>170.3372170372352</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6183,16 +6183,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.798548728682</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y25" t="n">
-        <v>805.005969585152</v>
+        <v>550.3214813792652</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6241,16 +6241,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946815</v>
@@ -6281,34 +6281,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6320,25 +6320,25 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.72546644621</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.72546644621</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6454,10 +6454,10 @@
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839441</v>
@@ -6469,13 +6469,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232731</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.3303343661177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C31" t="n">
-        <v>557.3941514382108</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D31" t="n">
-        <v>557.3941514382108</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6657,16 +6657,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1253.788099626699</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1253.788099626699</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1128.771378339887</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>907.9787991963574</v>
+        <v>410.1538185715858</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,16 +6703,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232732</v>
@@ -6727,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3412.457545486041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3412.457545486041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3262.340906073705</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4688.221265177249</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>4466.454649746775</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>4177.351782872418</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>3922.667294666531</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>3633.250124629571</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>3633.250124629571</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3412.457545486041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,13 +6925,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6940,13 +6940,13 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
         <v>2979.169639353395</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7016,40 +7016,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>935.6537883236062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>766.7176053956994</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>766.7176053956994</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1453.060509258584</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1163.643339221624</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>935.6537883236062</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>935.6537883236062</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,64 +7162,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846823</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518747</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.23671557753</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906984</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.65758193153</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1764.65758193153</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.767516148151</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1002.806306216375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.840519464783</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.8310435707792</v>
+        <v>521.8150410860691</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8948606428723</v>
+        <v>352.8788581581622</v>
       </c>
       <c r="D43" t="n">
-        <v>241.7782212305366</v>
+        <v>352.8788581581622</v>
       </c>
       <c r="E43" t="n">
-        <v>241.7782212305366</v>
+        <v>352.8788581581622</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>352.8788581581622</v>
       </c>
       <c r="G43" t="n">
         <v>241.7782212305366</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1894.131308083175</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1702.445423910001</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1480.678808479527</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1480.678808479527</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.678808479527</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.261638442566</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2720875445491</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.479508401019</v>
+        <v>703.4635059163088</v>
       </c>
     </row>
     <row r="44">
@@ -7639,46 +7639,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.310259422546</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903276</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7845,13 +7845,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>787.8860284537387</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>559.8964775557214</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>339.1038984121913</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747314</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476831</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9403,16 +9403,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>231.5010718068643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,19 +10351,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792044</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>219.3344627260154</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>57.67224444723735</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>39.48321557772579</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>122.9833692129693</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>107.616374467397</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9000989394796193</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>44.42672341217963</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.1724499918691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>45.48143183721551</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>70.7265941513684</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.8697408736272</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>101.9431013150932</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>147.7570121569884</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5938866627281</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>34.54324901485569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>176.7418332110456</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>56.03617770067895</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>27.34211622873347</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>77.41759119918785</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>182.1679443159944</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>894715.2713227015</v>
+        <v>894715.2713227016</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857273</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516046</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516051</v>
-      </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="F2" t="n">
         <v>575768.5909861256</v>
       </c>
       <c r="G2" t="n">
-        <v>575768.5909861259</v>
+        <v>575768.590986126</v>
       </c>
       <c r="H2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="I2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="K2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="L2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="N2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861261</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934073</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="L4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26484,16 +26484,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269778.2705187787</v>
+        <v>-269778.2705187791</v>
       </c>
       <c r="C6" t="n">
-        <v>320189.6086957658</v>
+        <v>320189.6086957657</v>
       </c>
       <c r="D6" t="n">
-        <v>320189.6086957656</v>
+        <v>320189.6086957664</v>
       </c>
       <c r="E6" t="n">
-        <v>-269611.9492580866</v>
+        <v>-270283.9041603451</v>
       </c>
       <c r="F6" t="n">
-        <v>457765.4647353202</v>
+        <v>457093.5098330622</v>
       </c>
       <c r="G6" t="n">
-        <v>457765.4647353201</v>
+        <v>457093.5098330626</v>
       </c>
       <c r="H6" t="n">
-        <v>457765.4647353205</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="I6" t="n">
-        <v>457765.4647353203</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="J6" t="n">
-        <v>281342.2455427273</v>
+        <v>280670.2906404695</v>
       </c>
       <c r="K6" t="n">
-        <v>457765.4647353203</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="L6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="M6" t="n">
-        <v>328123.1498963755</v>
+        <v>327451.1949941177</v>
       </c>
       <c r="N6" t="n">
-        <v>457765.4647353202</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="O6" t="n">
-        <v>457765.4647353205</v>
+        <v>457093.5098330622</v>
       </c>
       <c r="P6" t="n">
-        <v>457765.4647353207</v>
+        <v>457093.5098330623</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,37 +26968,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>106.7098555949967</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.6680633118499</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>124.7333384118651</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>89.58101666090508</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>8.887605572390981</v>
+        <v>65.6082846067429</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>85.14112624278616</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>231.8210826836387</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>107.4781987052512</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>315.402075051054</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>124.4974651601257</v>
+        <v>120.1051426060692</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359025</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>568.6923583622648</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36609,7 +36609,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37308,16 +37308,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>404.7279243224438</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502526</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>556.5257492814159</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>513.2623588395695</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>591.7850509906373</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286273.699105506</v>
+        <v>2289679.190229953</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>412.4289596462936</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45.22146064986453</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.0044783406141</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.0036366911897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>108.8074282022286</v>
+        <v>159.5623709710783</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.70191565295227</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>54.32902562741504</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686205</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1.94171930402188</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873209</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292569</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>66.78565611847256</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>80.76468634461126</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>38.8175881791722</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>159.0438448938657</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785995</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>103.1340411809968</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>59.95016842792776</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>23.62501292498514</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2967,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>186.0466578661065</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.82764119510642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,7 +3599,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
         <v>18.81721868247745</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>47.46616726055743</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486461</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>109.9896305583493</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.41670903610036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1683.321707331112</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="C2" t="n">
-        <v>1314.359190390701</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="D2" t="n">
-        <v>1314.359190390701</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="E2" t="n">
-        <v>928.5709377924563</v>
+        <v>881.5237953436019</v>
       </c>
       <c r="F2" t="n">
-        <v>517.5850330028488</v>
+        <v>470.5378905539944</v>
       </c>
       <c r="G2" t="n">
-        <v>99.6212249010357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>99.6212249010357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2443.387305656314</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2069.921547395234</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>2069.921547395234</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2587.242597884658</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="T5" t="n">
-        <v>2368.607930856721</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U5" t="n">
-        <v>2368.607930856721</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146243</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087374</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177351</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520777</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520777</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520777</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520777</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572642</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050018</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761941</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482873</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359515</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355841</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089254</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
         <v>1106.569146563073</v>
@@ -5056,37 +5056,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>805.5092287479694</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C13" t="n">
-        <v>805.5092287479694</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1799.052750156704</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1577.28613472623</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1288.183267851874</v>
+        <v>1445.473983799874</v>
       </c>
       <c r="V13" t="n">
-        <v>1033.498779645987</v>
+        <v>1190.789495593987</v>
       </c>
       <c r="W13" t="n">
-        <v>1033.498779645987</v>
+        <v>901.372325557026</v>
       </c>
       <c r="X13" t="n">
-        <v>805.5092287479694</v>
+        <v>673.3827746590086</v>
       </c>
       <c r="Y13" t="n">
-        <v>805.5092287479694</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5284,46 +5284,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622687</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294612</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353394</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>302.4735561031423</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154781</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5494,73 +5494,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>822.6328654632896</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>1225.073909437059</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>1004.281330293529</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,19 +5737,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5758,46 +5758,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,13 +5934,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368.6730165490254</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C25" t="n">
-        <v>199.7368336211185</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>303.0067076310803</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>156.1167601331699</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>156.1167601331699</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208126</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>771.1140605227953</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.3214813792652</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>636.1104853224374</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1650.963475269881</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1361.860608395525</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1107.176120189638</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>817.7589501526771</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>817.7589501526771</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>817.7589501526771</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001592</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1486.901207652587</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1197.79834077823</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>943.1138525723434</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="Y31" t="n">
-        <v>410.1538185715858</v>
+        <v>653.6966825353827</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6885,7 +6885,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1559.196154437386</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6949,7 +6949,7 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6967,22 +6967,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
         <v>2436.460902902952</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1549.639626139994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196469</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,10 +7253,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1908.397842609191</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1619.294975734835</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1364.610487528948</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>1075.193317491987</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>1075.193317491987</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>854.4007383484569</v>
       </c>
     </row>
     <row r="41">
@@ -7390,73 +7390,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>521.8150410860691</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C43" t="n">
-        <v>352.8788581581622</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="D43" t="n">
-        <v>352.8788581581622</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="E43" t="n">
-        <v>352.8788581581622</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="F43" t="n">
-        <v>352.8788581581622</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851287</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W43" t="n">
-        <v>931.4530568143261</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X43" t="n">
-        <v>703.4635059163088</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.4635059163088</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="44">
@@ -7639,13 +7639,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7654,31 +7654,31 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2593.249184644075</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870722</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>11.64153443578789</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>67.53663776704337</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>57.67224444723735</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>122.9833692129693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>137.8199670074835</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>107.616374467397</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.66581049517148</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270134</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>45.48143183721551</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>84.80484648639302</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>195.9239363511841</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>33.5022914100627</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>147.7570121569884</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>172.0827820156118</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696682</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>56.03617770067895</v>
+        <v>51.55114770987264</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>894715.2713227016</v>
+        <v>894715.2713227015</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857273</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834844.3571857273</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516046</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="G2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="I2" t="n">
+        <v>575768.5909861258</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="K2" t="n">
         <v>575768.5909861256</v>
       </c>
-      <c r="G2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>575768.5909861259</v>
-      </c>
-      <c r="I2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="J2" t="n">
-        <v>575768.590986126</v>
-      </c>
-      <c r="K2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="L2" t="n">
-        <v>575768.590986126</v>
       </c>
       <c r="M2" t="n">
         <v>575768.590986126</v>
       </c>
       <c r="N2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861256</v>
       </c>
       <c r="O2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.590986126</v>
       </c>
       <c r="P2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.5909861261</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934073</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="C4" t="n">
-        <v>192206.5963924297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="O5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-269778.2705187791</v>
       </c>
       <c r="C6" t="n">
-        <v>320189.6086957657</v>
+        <v>320189.6086957655</v>
       </c>
       <c r="D6" t="n">
-        <v>320189.6086957664</v>
+        <v>320189.6086957655</v>
       </c>
       <c r="E6" t="n">
-        <v>-270283.9041603451</v>
+        <v>-269679.1447483125</v>
       </c>
       <c r="F6" t="n">
-        <v>457093.5098330622</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="G6" t="n">
-        <v>457093.5098330626</v>
+        <v>457698.2692450943</v>
       </c>
       <c r="H6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450944</v>
       </c>
       <c r="I6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450944</v>
       </c>
       <c r="J6" t="n">
-        <v>280670.2906404695</v>
+        <v>281275.0500525016</v>
       </c>
       <c r="K6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450943</v>
       </c>
       <c r="L6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="M6" t="n">
-        <v>327451.1949941177</v>
+        <v>328055.9544061499</v>
       </c>
       <c r="N6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450943</v>
       </c>
       <c r="O6" t="n">
-        <v>457093.5098330622</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="P6" t="n">
-        <v>457093.5098330623</v>
+        <v>457698.2692450949</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.355210374501382</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>106.7098555949967</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>95.13316498321393</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.58101666090508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>65.6082846067429</v>
+        <v>14.85334183789325</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>231.8210826836387</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>49.56792418188238</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>113.9539220428406</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>315.402075051054</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060692</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>165.368082955029</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32323,7 +32323,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535805</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,22 +35652,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>519.694535324007</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,10 +37317,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>404.7279243224438</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38022,25 +38022,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>513.2623588395695</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
